--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_18_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56591.26856728148</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56591.26856728148</v>
+        <v>11261662.44488901</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2112.483571986229</v>
+        <v>332851.9629109944</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2112.483571986229</v>
+        <v>332851.9629109944</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266097962.155274</v>
+        <v>52124829.59101347</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10889.0811868988</v>
+        <v>1209625.732133168</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20690.24069754447</v>
+        <v>2248611.790407558</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30491.40020819013</v>
+        <v>3287597.84868195</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40320.84254711861</v>
+        <v>4326583.906956341</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50150.28488604708</v>
+        <v>5365569.965230733</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>59979.72722497556</v>
+        <v>6404556.023505123</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>69809.16956390406</v>
+        <v>7443542.08177951</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>79638.61190283253</v>
+        <v>8482528.140053896</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>89523.71990094191</v>
+        <v>9514149.139873775</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>99353.16223987035</v>
+        <v>10553135.19814816</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>109182.6045787988</v>
+        <v>11592121.25642255</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119012.0469177272</v>
+        <v>12631107.31469695</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>128841.4892566557</v>
+        <v>13670093.37297135</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>138989.4005030661</v>
+        <v>14662185.51789325</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>149195.3694073726</v>
+        <v>15645589.40021403</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>388</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,7 +27147,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27156,10 +27156,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
